--- a/medicine/Mort/Crématorium_du_cimetière_de_l'Est/Crématorium_du_cimetière_de_l'Est.xlsx
+++ b/medicine/Mort/Crématorium_du_cimetière_de_l'Est/Crématorium_du_cimetière_de_l'Est.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cr%C3%A9matorium_du_cimeti%C3%A8re_de_l%27Est</t>
+          <t>Crématorium_du_cimetière_de_l'Est</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le crématorium du cimetière de l'Est de Reims, est situé au 243 avenue Jean-Jaures dans le cimetière de l'Est à Reims en France. Il n'est plus en activité aujourd'hui mais était l'un des premiers crématoriums construits en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cr%C3%A9matorium_du_cimeti%C3%A8re_de_l%27Est</t>
+          <t>Crématorium_du_cimetière_de_l'Est</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été construit grâce au legs de Claude Goïot (1807-1892), architecte métreur, expert, conseiller municipal socialiste en 1884, qui légua à la Ville les sommes nécessaires à l’établissement du crématorium.
-Il appartient à la toute première génération de crématoriums, avec ceux du Père-Lachaise, de Rouen, de Marseille, de Lyon et de Strasbourg[1].
+Il appartient à la toute première génération de crématoriums, avec ceux du Père-Lachaise, de Rouen, de Marseille, de Lyon et de Strasbourg.
 Il a fonctionné de 1902 jusqu'en 1972.
 </t>
         </is>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cr%C3%A9matorium_du_cimeti%C3%A8re_de_l%27Est</t>
+          <t>Crématorium_du_cimetière_de_l'Est</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Architecture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Sculptures de Joseph Wary.
